--- a/StructureDefinition-member-of-a-common-exposure-cohort.xlsx
+++ b/StructureDefinition-member-of-a-common-exposure-cohort.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree was exposed via a common source or gathering. This field is read-only.</t>
+    <t>Represents whether or not a monitoree was exposed via a common source or gathering.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-member-of-a-common-exposure-cohort.xlsx
+++ b/StructureDefinition-member-of-a-common-exposure-cohort.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$16</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -299,19 +296,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>member-of-a-common-exposure-cohort</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -327,13 +312,10 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.value[x]</t>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -346,18 +328,8 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>member-of-a-common-exposure-cohort-type</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -486,21 +458,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -677,7 +634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -686,8 +643,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -834,7 +791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -934,7 +891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>78</v>
       </c>
@@ -1034,7 +991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>85</v>
       </c>
@@ -1044,10 +1001,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>73</v>
@@ -1136,11 +1093,9 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>92</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>73</v>
       </c>
@@ -1152,31 +1107,33 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K5" t="s" s="2">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>73</v>
@@ -1218,27 +1175,27 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1261,13 +1218,13 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1318,7 +1275,7 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
@@ -1330,1039 +1287,13 @@
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
-      <c r="A8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" hidden="true">
-      <c r="A9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
-      <c r="A11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
-      <c r="A13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>